--- a/backend/chatapp/chat/dataset/answers.xlsx
+++ b/backend/chatapp/chat/dataset/answers.xlsx
@@ -1,135 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\leptop other project\ChatbardApp_multiple_img_vid\backend\chatapp\chat\dataset\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF95A4A5-6270-4CBC-8185-2343236B4F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>image_path</t>
-  </si>
-  <si>
-    <t>video_path</t>
-  </si>
-  <si>
-    <t>क्या घरेलू उपाय खरपतवार नियंत्रण में मदद कर सकते हैं?</t>
-  </si>
-  <si>
-    <t>जी हां, घरेलू उपाय जैसे कि सिरका या नमक का उपयोग खरपतवारों को नियंत्रित करने के लिए किया जा सकता है। ये प्राकृतिक तत्व खरपतवारों की वृद्धि को रोकने में मदद करते हैं।</t>
-  </si>
-  <si>
-    <t>https://edenapp.com/wp-content/uploads/2020/09/Weed-control-in-the-garden.jpg</t>
-  </si>
-  <si>
-    <t>https://example.com/videos/home_remedies_for_weeds.mp4</t>
-  </si>
-  <si>
-    <t>मेरे पौधों पर एफिड्स लग गए हैं, क्या करूँ?</t>
-  </si>
-  <si>
-    <t>एफिड्स को नियंत्रित करने के लिए आप नीम का तेल या साबुन के पानी का स्प्रे का उपयोग कर सकते हैं। ये प्राकृतिक कीटनाशक एफिड्स को मारने में मदद करते हैं.</t>
-  </si>
-  <si>
-    <t>https://www.amazingherbgarden.com/wp-content/uploads/2019/11/aphids-on-a-stem-of-a-plant.jpg</t>
-  </si>
-  <si>
-    <t>https://example.com/videos/controlling_aphids.mp4</t>
-  </si>
-  <si>
-    <t>आम के पेड़ में फल क्यों नहीं लग रहे हैं?</t>
-  </si>
-  <si>
-    <t>आम के पेड़ में फल न लगने के कई कारण हो सकते हैं, जैसे कि परागण की कमी, पोषक तत्वों की कमी, या रोग। आप एक कृषि विशेषज्ञ से सलाह ले सकते हैं.</t>
-  </si>
-  <si>
-    <t>https://images.tv9hindi.com/wp-content/uploads/2021/11/mango-1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?app=desktop&amp;v=DiSFhKGSj5E</t>
-  </si>
-  <si>
-    <t>This</t>
-  </si>
-  <si>
-    <t>Images/images/WhatsApp_Image_2024-10-11_at_9_jye4P2B.19.25_PM.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.blackbox.ai/chat/tr7pYuh</t>
-  </si>
-  <si>
-    <t>टमाटर के पौधे कब लगाने चाहिए?</t>
-  </si>
-  <si>
-    <t>टमाटर के पौधे गर्म मौसम में लगाने चाहिए। जब रात का तापमान 10 डिग्री सेल्सियस से ऊपर हो जाए, तब बीज बोने या रोपे लगाने का सबसे अच्छा समय होता है.</t>
-  </si>
-  <si>
-    <t>Images/images/51ZYS38GqmL_imv9bgY._AC_UF10001000_QL80_.jpg</t>
-  </si>
-  <si>
-    <t>/media/Images/images/WhatsApp_Image_2024-10-22_at_6.21.15_PM_1.jpeg</t>
-  </si>
-  <si>
-    <t>/media/Videos/videos/in-y2mate_qZN7UbB.com_-_Chat_With_Multiple_PDF_Documents_With_Langchain_And_Google_Gemini_Pro_genai_googlegemini_1080p.mp4</t>
-  </si>
-  <si>
-    <t>Ai course</t>
-  </si>
-  <si>
-    <t>this is you teature</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>Images/images/1633936042665_1-01-01.jpeg</t>
-  </si>
-  <si>
-    <t>Videos/videos/5752729-uhd_3840_2160_30fps_6DjBw1k.mp4</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -144,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,125 +420,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>image_path</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>video_path</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>क्या घरेलू उपाय खरपतवार नियंत्रण में मदद कर सकते हैं?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>जी हां, घरेलू उपाय जैसे कि सिरका या नमक का उपयोग खरपतवारों को नियंत्रित करने के लिए किया जा सकता है। ये प्राकृतिक तत्व खरपतवारों की वृद्धि को रोकने में मदद करते हैं।</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://edenapp.com/wp-content/uploads/2020/09/Weed-control-in-the-garden.jpg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://example.com/videos/home_remedies_for_weeds.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>मेरे पौधों पर एफिड्स लग गए हैं, क्या करूँ?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>एफिड्स को नियंत्रित करने के लिए आप नीम का तेल या साबुन के पानी का स्प्रे का उपयोग कर सकते हैं। ये प्राकृतिक कीटनाशक एफिड्स को मारने में मदद करते हैं.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.amazingherbgarden.com/wp-content/uploads/2019/11/aphids-on-a-stem-of-a-plant.jpg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://example.com/videos/controlling_aphids.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>आम के पेड़ में फल क्यों नहीं लग रहे हैं?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>आम के पेड़ में फल न लगने के कई कारण हो सकते हैं, जैसे कि परागण की कमी, पोषक तत्वों की कमी, या रोग। आप एक कृषि विशेषज्ञ से सलाह ले सकते हैं.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://images.tv9hindi.com/wp-content/uploads/2021/11/mango-1.jpg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?app=desktop&amp;v=DiSFhKGSj5E</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>This</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Images/images/WhatsApp_Image_2024-10-11_at_9_jye4P2B.19.25_PM.jpeg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.blackbox.ai/chat/tr7pYuh</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>टमाटर के पौधे कब लगाने चाहिए?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>टमाटर के पौधे गर्म मौसम में लगाने चाहिए। जब रात का तापमान 10 डिग्री सेल्सियस से ऊपर हो जाए, तब बीज बोने या रोपे लगाने का सबसे अच्छा समय होता है.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Images/images/51ZYS38GqmL_imv9bgY._AC_UF10001000_QL80_.jpg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.blackbox.ai/chat/tr7pYuh</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>by</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>/media/Images/images/Invitation_Card-25_1.png</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>/media/Videos/videos/new_design_m.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>tamatar</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bad ret hai bhai....</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>/media/Images/images/51ZYS38GqmL_JsUq2K8._AC_UF10001000_QL80_.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>/media/Videos/videos/5752729-uhd_3840_2160_30fps_AKGq6DU.mp4</t>
+        </is>
       </c>
     </row>
   </sheetData>
